--- a/3.9.+Population+variance+known,+z-score_exercise.xlsx
+++ b/3.9.+Population+variance+known,+z-score_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\Statistics\Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CCFDAA-65AE-4B92-BAB7-20D0296A1E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9170A5-E3C1-40CC-8582-6FE669FBDEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Data scientist salary</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Confidence Interval (90%)</t>
+  </si>
+  <si>
+    <t>α /2</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -348,6 +351,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -814,7 +818,7 @@
   <dimension ref="B1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -1009,12 +1013,14 @@
         <v>0.53590000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>101936</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="30">
         <f>E13/2</f>
         <v>4.9999999999999989E-2</v>
@@ -1463,7 +1469,7 @@
         <v>90745</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
